--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_009.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_009.xlsx
@@ -31,336 +31,336 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295030EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) SRV discharge submergence</t>
-  </si>
-  <si>
-    <t>(295026EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Suppression pool cooling</t>
-  </si>
-  <si>
-    <t>(295019AK2.06) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Offgas system</t>
-  </si>
-  <si>
-    <t>(295031EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Low-pressure core spray</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(700000AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Frequency changes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295005AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Turbine bypass valve operation </t>
-  </si>
-  <si>
-    <t>(295021AK2.08) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Alternate decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(295027EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Hydrogen recombiners</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
-  </si>
-  <si>
-    <t>(295037EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Hot shutdown boron weight</t>
-  </si>
-  <si>
-    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
-  </si>
-  <si>
-    <t>(295016AK2.11) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
-  </si>
-  <si>
-    <t>(295006AA1.03) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
-  </si>
-  <si>
-    <t>(295001AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor water level response</t>
-  </si>
-  <si>
-    <t>(295017AA1.06) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Condenser air removal system</t>
-  </si>
-  <si>
-    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
-  </si>
-  <si>
-    <t>(295009AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Jet pump net positive suction head</t>
-  </si>
-  <si>
-    <t>(295013AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Limiting heat additions</t>
-  </si>
-  <si>
-    <t>(295007AK2.07) Knowledge of the relationship between the (APE 7) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(209002K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(510000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Radiation alarm response</t>
-  </si>
-  <si>
-    <t>(211000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) SLCS lineup</t>
-  </si>
-  <si>
-    <t>(263000K4.03) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Ground detection</t>
-  </si>
-  <si>
-    <t>(264000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(259002K2.03) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater controllers</t>
-  </si>
-  <si>
-    <t>(262002K3.14) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
-  </si>
-  <si>
-    <t>(209001A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(215003A3.04) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block signals</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002A4.04) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(300000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Component cooling water system</t>
-  </si>
-  <si>
-    <t>(203000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) NPSH limits</t>
-  </si>
-  <si>
-    <t>(400000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) Surge tank level</t>
-  </si>
-  <si>
-    <t>(223002K4.01) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Redundancy</t>
-  </si>
-  <si>
-    <t>(217000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) High turbine exhaust pressure</t>
-  </si>
-  <si>
-    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
-  </si>
-  <si>
-    <t>(215005K3.07) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ROD BLOCK MONITOR SYSTEM (BWR 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(262001A2.05) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Bus grounds /faults</t>
-  </si>
-  <si>
-    <t>(261000A3.03) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) Valve/damper operation</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (291002K1.13) SENSORS AND DETECTORS (CFR: 41.7) (PRESSURE) Modes of failure</t>
-  </si>
-  <si>
-    <t>(218000A4.03) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic reset</t>
-  </si>
-  <si>
-    <t>(209002K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection</t>
-  </si>
-  <si>
-    <t>(510000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Intake/traveling screen high differential pressure/ differential level</t>
-  </si>
-  <si>
-    <t>(211000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Pump amps</t>
-  </si>
-  <si>
-    <t>(263000K4.05) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Coping time</t>
-  </si>
-  <si>
-    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(288000A4.04) Ability to manually operate and/or monitor the (SF9 PVS) PLANT VENTILATION SYSTEMS in the control room: (CFR: 41.4 / 41.7 / 45.5 to 45.8) Building differential pressure</t>
-  </si>
-  <si>
-    <t>(290002K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(268000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 RW) RADWASTE SYSTEM: (CFR: 41.5 / 45.3) Dilution flow for releases</t>
-  </si>
-  <si>
-    <t>(216000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION including: (CFR: 41.5 / 45.5) Removing or returning a sensor (transmitter) to service</t>
-  </si>
-  <si>
-    <t>(226001K4.11) Knowledge of (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of leakage to the environment through system heat exchanger</t>
-  </si>
-  <si>
-    <t>(245000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.7 / 45.7) Hydrogen cooling</t>
-  </si>
-  <si>
-    <t>(290001K2.02) (SF5 SC) SECONDARY CONTAINMENT Knowledge of electrical power supplies to the following: (CFR: 41.7) HVAC isolation dampers</t>
-  </si>
-  <si>
-    <t>(286000K3.07) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main generator/exciter systems</t>
-  </si>
-  <si>
-    <t>(271000A2.09) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Abnormal valve positions</t>
-  </si>
-  <si>
-    <t>(239001A3.02) Ability to monitor automatic operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.7 / 45.7) Opening and closing of drain valves as turbine load changes</t>
-  </si>
-  <si>
-    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+    <t>(295018AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Securing individual components (preventing equipment damage)</t>
+  </si>
+  <si>
+    <t>(295030EK2.06) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool makeup system(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295027EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Reactor water level measurement</t>
+  </si>
+  <si>
+    <t>(295037EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) APRM/LPRM system</t>
+  </si>
+  <si>
+    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
+  </si>
+  <si>
+    <t>(295006AK2.04) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) Turbine trip logic</t>
+  </si>
+  <si>
+    <t>(295005AA2.09) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Primary containment integrity</t>
+  </si>
+  <si>
+    <t>(295019AA1.02) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) System valves</t>
+  </si>
+  <si>
+    <t>(295021AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Maximizing reactor water cleanup flow</t>
+  </si>
+  <si>
+    <t>(295025EK2.01) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(700000AA2.09) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of emergency diesel generators</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
+  </si>
+  <si>
+    <t>(295023AA1.06) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
+  </si>
+  <si>
+    <t>(295016AK2.15) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Main turbine and auxiliaries</t>
+  </si>
+  <si>
+    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295014AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Fuel thermal limits</t>
+  </si>
+  <si>
+    <t>(295020AA1.01) Ability to operate and/or monitor the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.7 / 45.6) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(295035EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Blow-out panel operation</t>
+  </si>
+  <si>
+    <t>(295022AK2.09) Knowledge of the relationship between the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS and the following systems or components: (CFR: 41.7 / 45.8) NBI</t>
+  </si>
+  <si>
+    <t>(295009AA2.03) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water cleanup blowdown rate</t>
+  </si>
+  <si>
+    <t>(261000K2.01) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Standby gas treatment system fans</t>
+  </si>
+  <si>
+    <t>(264000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fire protection system</t>
+  </si>
+  <si>
+    <t>(223002K3.06) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Turbine building radiation</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(400000A3.03) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Spent fuel pool cooling</t>
+  </si>
+  <si>
+    <t>(218000A2.05) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of electrical power to ADS</t>
+  </si>
+  <si>
+    <t>(239002K4.05) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Allows for SRV operation from more than one location</t>
+  </si>
+  <si>
+    <t>(211000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Squib valve operation</t>
+  </si>
+  <si>
+    <t>(215004A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(215005K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) Detectors</t>
+  </si>
+  <si>
+    <t>(212000A4.18) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Transferring RPS power supplies</t>
+  </si>
+  <si>
+    <t>(510000K2.01) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system pumps (Class 1E)</t>
+  </si>
+  <si>
+    <t>(203000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) Primary containment</t>
+  </si>
+  <si>
+    <t>(205000K3.02) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (291002K1.06) SENSORS AND DETECTORS (CFR: 41.7) (LEVEL) Temperature/pressure compensation requirements</t>
+  </si>
+  <si>
+    <t>(259002A3.11) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Automatic selection of feedflow/steam flow/level channel input</t>
+  </si>
+  <si>
+    <t>(217000A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(215003K4.10) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatically bypassing IRM rod block signals</t>
+  </si>
+  <si>
+    <t>(300000K5.15) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) High moisture content in instrument air</t>
+  </si>
+  <si>
+    <t>(263000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Voltage</t>
+  </si>
+  <si>
+    <t>(262002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(209002A4.04) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Minimum flow valve</t>
+  </si>
+  <si>
+    <t>(261000K2.04) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Standby gas treatment system heaters</t>
+  </si>
+  <si>
+    <t>(264000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water system</t>
+  </si>
+  <si>
+    <t>(223002K3.09) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main steam system</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(290001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.7 / 45.7) Primary containment system</t>
+  </si>
+  <si>
+    <t>(259001A4.01) Ability to manually operate and/or monitor the (SF2 FWS) FEEDWATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System flow</t>
+  </si>
+  <si>
+    <t>(239001K2.01) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Main steam isolation valve solenoids</t>
+  </si>
+  <si>
+    <t>(202001K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF4 RS) RECIRCULATION SYSTEM and the following systems: (CFR: 41.2 to 41.8 / 45.7 / 45.8) Residual heat removal/low-pressure coolant injection</t>
+  </si>
+  <si>
+    <t>(215001K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 TIP) TRAVERSING IN CORE PROBE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Local power range monitoring system</t>
+  </si>
+  <si>
+    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (291002K1.22) SENSORS AND DETECTORS (CFR: 41.7) (NUCLEAR INSTRUMENTATION) Failure modes of fission chambers, ion chambers, and proportional counters</t>
+  </si>
+  <si>
+    <t>(290003A3.01) Ability to monitor automatic operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.7 / 45.7) Initiation/reconfiguration</t>
+  </si>
+  <si>
+    <t>(234000A2.04) Ability to (a) predict the impacts of the following on the (SF8 FH) FUEL HANDLING and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5) malfunction</t>
+  </si>
+  <si>
+    <t>(202002K4.07) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Minimum and maximum pump speed setpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(272000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.4) </t>
+  </si>
+  <si>
+    <t>(204000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.5 / 45.5) Component cooling water temperature</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
     <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292006K1.03) FISSION PRODUCT POISONS (CFR: 41.1) Describe the production of xenon-135</t>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(292003K1.09) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define doubling time and calculate it using the power</t>
   </si>
   <si>
-    <t>(292008K1.19) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain transient and steady-state effects of a control rod withdrawal on reactor power and void fraction content</t>
-  </si>
-  <si>
-    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
-  </si>
-  <si>
-    <t>(293006K1.06) FLUID STATICS AND DYNAMICS (CFR: 41.14) Discuss methods of prevention of fluid/water hammer</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295011AA2.01) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(259002A2.08) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Receipt of an ECCS initiation signal: FWCI</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(209001A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent system initiation</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202002A2.05) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Scoop tube lockup (BWR 2, 3, 4)</t>
-  </si>
-  <si>
-    <t>(204000) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM  (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(510001A2.04) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) System leakage/rupture</t>
-  </si>
-  <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(292006K1.04) FISSION PRODUCT POISONS (CFR: 41.1) Describe the removal of xenon-135</t>
+  </si>
+  <si>
+    <t>(292002K1.12) NEUTRON LIFE CYCLE (CFR: 41.1) State the relationship between reactivity and effective multiplication factor</t>
+  </si>
+  <si>
+    <t>(293006K1.08) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss pump head</t>
+  </si>
+  <si>
+    <t>(293009K1.20) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the mode of fuel failure for CPR</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA2.15) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Requirements for establishing a fire watch (SRO Only)</t>
+  </si>
+  <si>
+    <t>(295029EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment pressure</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295013AA2.03) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Open/leaking Safety relief valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(400000A2.07) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(239002A2.04) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS actuation</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(215004A2.02) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SRMS inoperable condition</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(226001A2.13) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve logic failure</t>
+  </si>
+  <si>
+    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A2</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
@@ -385,19 +385,43 @@
     <t>T</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>600000</t>
+    <t>295021</t>
   </si>
   <si>
     <t>295025</t>
@@ -406,196 +430,172 @@
     <t>700000</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295027</t>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295024</t>
   </si>
   <si>
     <t>295023</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295004</t>
+    <t>295003</t>
   </si>
   <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295034</t>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295022</t>
   </si>
   <si>
     <t>295009</t>
   </si>
   <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
     <t>295013</t>
   </si>
   <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>216000</t>
+    <t>239003</t>
   </si>
   <si>
     <t>226001</t>
   </si>
   <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>510001</t>
+    <t>201003</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1446,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D33" t="s">
         <v>107</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D44" t="s">
         <v>107</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1939,7 +1939,7 @@
         <v>3.1</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
         <v>107</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
